--- a/data/Eksklusion_lande/Akademiker Pension_eksklusionsliste_lande_isin.xlsx
+++ b/data/Eksklusion_lande/Akademiker Pension_eksklusionsliste_lande_isin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="100">
   <si>
     <t>Land</t>
   </si>
@@ -223,9 +223,6 @@
     <t>['CND10001RRB3', 'CND10004TCP5', 'CND10004TM71', 'CND10006GPT1', 'HK0000116415', 'HK0000317732', 'HK0000867637', 'US55300RAG65', 'US80007RAL96', 'XS2227351900']</t>
   </si>
   <si>
-    <t>['XS1717011982', 'XS1717013095', 'XS1777972941', 'XS1910826996', 'XS1910827887', 'XS1910828182', 'XS2337067792', 'XS2384701020', 'XS2384704800', 'XS2445169985']</t>
-  </si>
-  <si>
     <t>['XS2373051320']</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>['3,25 CGB 22-11-2028 (1827)', '3,32 CGB 15-04-2052 (INBK)', '2,76 CGB 15-05-2032 (INBK)', 'CHINA GOVERNMENT BOND 2.67% 25.05.2033', 'CHINA GOVERNMENT BOND 3.48% 29.06.2027', 'CHINA GOVERNMENT BOND 4.15% 12.12.2031', 'CHINA GOVERNMENT BOND 2.82% 12.08.2032', 'MGM CHINA HOLDINGS LTD 4.75% 01.02.2027', 'SANDS CHINA LTD 4.375% 18.06.2030', '7.00% China SCE Group Holdings Ltd 2025']</t>
   </si>
   <si>
-    <t>['Nigeria, Federal Republic Of (Government) 6.5% 20271128', 'Nigeria, Federal Republic Of (Government) 7.625% 20471128', 'REPUBLIC OF NIGERIA 7.625% 28.11.2047', 'Nigeria, Federal Republic Of (Government) 7.696% 20380223', '7.63% Nigeria Government International Bond 2025', 'Nigeria, Federal Republic Of (Government) 7.625% 20251121', '8.75% Nigeria Government International Bond 2031', 'Nigeria, Federal Republic Of (Government) 8.747% 20310121', 'REPUBLIC OF NIGERIA 8.747% 21.01.2031', 'Nigeria, Federal Republic Of (Government) 9.248% 20490121', 'AFRICA FINANCE CORP 2.875% 28.04.2028', '7,375 NGERIA 28-09-2033 (REGS)', 'REPUBLIC OF NIGERIA 7.375% 28.09.2033', '8,25 NGERIA 28-09-2051 (REGS)', 'Nigeria, Federal Republic Of (Government) 8.25% 20510928', 'REPUBLIC OF NIGERIA 8.25% 28.09.2051', '8,375 NGERIA 24-03-2029 (REGS)', '8.38% Nigeria Government International Bond 2029', 'Nigeria, Federal Republic Of (Government) 8.375% 20290324', 'REPUBLIC OF NIGERIA 8.375% 24.03.2029']</t>
-  </si>
-  <si>
     <t>['5,5 RWANDA 09-08-2031 (REGS)', '5.50% Rwanda International Government Bond 2031', 'REPUBLIC OF RWANDA 5.5% 09.08.2031']</t>
   </si>
   <si>
@@ -283,9 +277,6 @@
     <t>["People's Republic of China", 'China Government Bond', 'Kina', 'Macau', 'MGM China Holdings Ltd', 'Sands China Ltd', nan]</t>
   </si>
   <si>
-    <t>['NIGERIA, FEDERAL REPUBLIC OF (GOVERNMENT)', 'Nigeria', 'Nigeria Government International Bond', 'REPUBLIC OF NIGERIA  ', '7.63% Nigeria Government International Bond 2025', '8.75% Nigeria Government International Bond 2031', 'Federal Republic of Nigeria', '8.38% Nigeria Government International Bond 2029']</t>
-  </si>
-  <si>
     <t>['Republic of Rwanda', '5.50% Rwanda International Government Bond 2031', 'Rwanda International Government Bond', 'REPUBLIC OF RWANDA  ', 'Rwanda']</t>
   </si>
   <si>
@@ -311,9 +302,6 @@
   </si>
   <si>
     <t>['Herning', 'Silkeborg', 'Vejen', 'Kalundborg', 'Skive']</t>
-  </si>
-  <si>
-    <t>['Vesthimmerland', 'Fanø', 'Kalundborg', 'Rødovre', 'Vejen', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Herning']</t>
   </si>
   <si>
     <t>['Herning', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Kalundborg', 'Fanø', 'Rødovre', 'Vejen']</t>
@@ -749,13 +737,13 @@
         <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -818,13 +806,13 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -864,13 +852,13 @@
         <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1002,13 +990,13 @@
         <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1094,13 +1082,13 @@
         <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1272,16 +1260,16 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1318,16 +1306,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1341,16 +1329,16 @@
         <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1479,16 +1467,16 @@
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1525,16 +1513,16 @@
         <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:7">
